--- a/UPScase_bulkupload.xlsx
+++ b/UPScase_bulkupload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\UPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33F4D7E-D950-4CFC-BD58-BB4458D98FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC9F73-AAE5-4641-A07C-25A21C2C49F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFFE5932-AFEE-4071-93D3-EDA93D31C217}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{AFFE5932-AFEE-4071-93D3-EDA93D31C217}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>Transport mode</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>acceptance criteria: data uploaded in the system should match with excel upload, all validation rule in excel upload should works properly, no erronous data could flow from excel upload into the system (X% of data accuracy achieved), work efficiency achieved (time reduction of X% of administrative process)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - what is the business definition of each attributes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - why is this important?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - is there any alternative feature other than bulk upload that could lead to the same objective? (e.g. RFID automatic tracking system)</t>
   </si>
 </sst>
 </file>
@@ -456,20 +465,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -605,6 +611,9 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -628,7 +637,7 @@
     <tableColumn id="3" xr3:uid="{B764F04A-A209-49A8-9692-BC38A01FEEAB}" name="Haulier"/>
     <tableColumn id="5" xr3:uid="{6A52A67F-36BD-48CF-886B-7C632D641B95}" name="Pickup Location"/>
     <tableColumn id="7" xr3:uid="{B3373882-061D-429A-A6DC-7081C93F7CD9}" name="Drop-off Location"/>
-    <tableColumn id="6" xr3:uid="{0A1544AB-37C5-4C09-A40C-91DD6E2A2259}" name="Pickup Date" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0A1544AB-37C5-4C09-A40C-91DD6E2A2259}" name="Pickup Date" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{1FD9517D-34D3-4E81-A376-A69F2249508C}" name="Drop-off Date"/>
     <tableColumn id="11" xr3:uid="{F7788E2B-1CAA-40B7-A5D1-51FD8783DAA3}" name="TO sent"/>
     <tableColumn id="10" xr3:uid="{3D72A5C0-4A8B-44C1-B493-63A80FFED754}" name="Delivery Reference"/>
@@ -639,7 +648,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6F2CE1E-2A11-4E05-B0D6-63CE2C6F3B4E}" name="Table2" displayName="Table2" ref="A3:A7" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6F2CE1E-2A11-4E05-B0D6-63CE2C6F3B4E}" name="Table2" displayName="Table2" ref="A3:A7" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A3:A7" xr:uid="{747B127E-258D-4921-809E-99739A7BC9FF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A89304B7-0FBB-41BB-93A6-2B37CFA15FFB}" name="Transport Mode"/>
@@ -649,7 +658,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74A89810-A2ED-4E3A-AB01-1FC393E2955A}" name="Table3" displayName="Table3" ref="C3:C20" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74A89810-A2ED-4E3A-AB01-1FC393E2955A}" name="Table3" displayName="Table3" ref="C3:C20" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="C3:C20" xr:uid="{BE502E3D-3D51-444F-889B-C70946DFBB53}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{786865AE-39AE-488E-93A3-D9B900EB2FC4}" name="Transport Type"/>
@@ -659,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD2B6E45-857C-4D24-9885-EC948B9E21AF}" name="Table5" displayName="Table5" ref="G3:G14" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD2B6E45-857C-4D24-9885-EC948B9E21AF}" name="Table5" displayName="Table5" ref="G3:G14" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="G3:G14" xr:uid="{715C8F1D-3506-461E-98B7-9F797372F343}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9558525E-C30D-45B8-BEC1-5EAF895D1CA2}" name="Truck"/>
@@ -669,7 +678,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{63FAAB31-16B9-4805-A575-57979AA21CCF}" name="Table6" displayName="Table6" ref="I3:I5" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{63FAAB31-16B9-4805-A575-57979AA21CCF}" name="Table6" displayName="Table6" ref="I3:I5" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="I3:I5" xr:uid="{9D91AB5C-227A-4DA1-81A9-EA78AE98A7F3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0784D026-CA55-46E8-9166-04A73602D523}" name="Barge"/>
@@ -679,7 +688,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0C5BDE7E-4FCD-41D2-9F95-F70B24BE65AD}" name="Table7" displayName="Table7" ref="K3:K5" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0C5BDE7E-4FCD-41D2-9F95-F70B24BE65AD}" name="Table7" displayName="Table7" ref="K3:K5" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="K3:K5" xr:uid="{748F373F-C3A7-4E34-AA40-7C6AAD86C469}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{21D555C3-2D7C-40C2-8021-D6A264C860AD}" name="Rail"/>
@@ -689,7 +698,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B481BD58-4283-4780-9C6D-90CDAFFF2525}" name="Table8" displayName="Table8" ref="M3:M10" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B481BD58-4283-4780-9C6D-90CDAFFF2525}" name="Table8" displayName="Table8" ref="M3:M10" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="M3:M10" xr:uid="{F07A1FA5-0560-41BE-A3EF-5E0100787EDC}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{547B0598-B35E-4278-A508-6DE72696FEA3}" name="Storage"/>
@@ -699,7 +708,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{70FA2938-5764-452D-8220-FCC94AC1348D}" name="Table9" displayName="Table9" ref="E3:E6" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{70FA2938-5764-452D-8220-FCC94AC1348D}" name="Table9" displayName="Table9" ref="E3:E6" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="E3:E6" xr:uid="{91C5F824-D562-428C-B1C4-BCE17106B2EF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A878EE5F-A328-4792-8F9E-17B15E16929D}" name="Haulier"/>
@@ -712,7 +721,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{82CA6529-668A-429A-92EA-CEE75B65CD9D}" name="Table11" displayName="Table11" ref="O3:O5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="O3:O5" xr:uid="{A69ED9DF-6269-453E-B1E6-76B29CA199B6}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8A62966E-DF0A-421D-92FD-50F874C654BB}" name="TO sent" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8A62966E-DF0A-421D-92FD-50F874C654BB}" name="TO sent" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1018,7 +1027,7 @@
   <dimension ref="A2:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,30 +1045,30 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
@@ -1077,50 +1086,50 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1138,32 +1147,32 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1370,23 +1379,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1616,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446B3B77-FE04-431E-A825-68C688ABD3C9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,33 +1673,48 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
